--- a/selenium.automation/src/test/resources/InputTestData.xlsx
+++ b/selenium.automation/src/test/resources/InputTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>TC7_verifyCheckOutQuantity_allEmptyInput</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>TC9_verifyCheckOutQuantity_alphaAndSpecialCharacter</t>
   </si>
 </sst>
 </file>
@@ -149,7 +158,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,24 +168,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,12 +521,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -536,7 +548,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -556,7 +568,7 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -570,7 +582,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -590,7 +602,7 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -610,7 +622,7 @@
       <c r="E5" s="1">
         <v>-1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -630,7 +642,7 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -640,7 +652,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -652,10 +664,23 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
